--- a/data/input_data_NLD.xlsx
+++ b/data/input_data_NLD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9A75EA-CDE8-445D-9292-CCC1EB121D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA2C2FF-9183-464B-A87F-E515980AA4DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -889,6 +889,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8713,7 +8716,7 @@
       <c r="C10" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="71">
         <v>0.6</v>
       </c>
       <c r="E10" s="27">
@@ -8786,7 +8789,7 @@
         <v>98</v>
       </c>
       <c r="D12" s="58">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="E12" s="27">
         <v>1</v>
@@ -8894,7 +8897,7 @@
         <v>92</v>
       </c>
       <c r="D15" s="58">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="E15" s="27">
         <v>1</v>
@@ -8928,7 +8931,7 @@
       </c>
       <c r="D16" s="59">
         <f>D15+0.1</f>
-        <v>0.45999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="27">
         <v>1</v>
@@ -8960,7 +8963,7 @@
       </c>
       <c r="D17" s="59">
         <f>D15+0.2</f>
-        <v>0.56000000000000005</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
@@ -9231,7 +9234,7 @@
         <v>200</v>
       </c>
       <c r="S3" s="39">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T3" s="40">
         <v>1</v>

--- a/data/input_data_NLD.xlsx
+++ b/data/input_data_NLD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA2C2FF-9183-464B-A87F-E515980AA4DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B82E56-F413-43C7-8D62-2394FC4A1F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="103">
   <si>
     <t>0-4</t>
   </si>
@@ -449,6 +449,15 @@
   </si>
   <si>
     <t>Schools, nurseries, and universities closed, hospitality onsite service prohibited</t>
+  </si>
+  <si>
+    <t>lockdown4</t>
+  </si>
+  <si>
+    <t>Hypothetical strengthening of lockdown</t>
+  </si>
+  <si>
+    <t>Hypothetical relax of lockdown</t>
   </si>
 </sst>
 </file>
@@ -8373,9 +8382,9 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R25" sqref="R25"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8484,7 +8493,7 @@
         <v>87</v>
       </c>
       <c r="D3" s="58">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="E3" s="27">
         <v>1</v>
@@ -8520,13 +8529,23 @@
         <v>94</v>
       </c>
       <c r="D4" s="58">
-        <v>0.27</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+        <v>0.12</v>
+      </c>
+      <c r="E4" s="27">
+        <v>1</v>
+      </c>
+      <c r="F4" s="27">
+        <v>1</v>
+      </c>
+      <c r="G4" s="27">
+        <v>1</v>
+      </c>
+      <c r="H4" s="27">
+        <v>1</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0</v>
+      </c>
       <c r="J4" s="45"/>
       <c r="K4" s="45"/>
       <c r="L4" s="43">
@@ -8546,7 +8565,7 @@
         <v>90</v>
       </c>
       <c r="D5" s="58">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="E5" s="27">
         <v>1</v>
@@ -8582,7 +8601,7 @@
         <v>91</v>
       </c>
       <c r="D6" s="58">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="27">
         <v>1</v>
@@ -8618,7 +8637,7 @@
         <v>92</v>
       </c>
       <c r="D7" s="58">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="E7" s="27">
         <v>1</v>
@@ -8645,14 +8664,13 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="67"/>
       <c r="B8" s="27" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D8" s="59">
-        <f>D7+0.1</f>
-        <v>0.45999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="E8" s="27">
         <v>1</v>
@@ -8677,14 +8695,13 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="67"/>
       <c r="B9" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>102</v>
       </c>
       <c r="D9" s="59">
-        <f>D7+0.2</f>
-        <v>0.56000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="E9" s="27">
         <v>1</v>
@@ -9004,7 +9021,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9162,7 +9179,7 @@
         <v>2000</v>
       </c>
       <c r="S2" s="39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T2" s="40">
         <v>1</v>
